--- a/src/normas/data/tab_dec_8468.xlsx
+++ b/src/normas/data/tab_dec_8468.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\open_mpsp\norma_dec_8468-76\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\open_mpsp\norma_dec_8468-76\src\normas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9480A-0498-4A3B-BF7F-4C010829361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAC55F-7E80-468D-A178-8FEFB3542D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dec_8468" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>NH3</t>
   </si>
   <si>
-    <t xml:space="preserve">mg/l de N </t>
-  </si>
-  <si>
     <t>Item 1, Art. 10</t>
   </si>
   <si>
@@ -697,6 +694,9 @@
   </si>
   <si>
     <t>As+Cd+Pb+Cu+Hg+Ag+Se+Cr+Zn</t>
+  </si>
+  <si>
+    <t>mg/l de N</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1213,13 +1213,13 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1227,28 +1227,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="2">
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1256,28 +1256,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,28 +1285,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>0.01</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1314,28 +1314,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>0.05</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1343,25 +1343,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2">
         <v>0.2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,28 +1369,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1398,28 +1398,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="2">
         <v>0.1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1427,28 +1427,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1456,25 +1456,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
         <v>1E-3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1482,28 +1482,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>1.4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1511,28 +1511,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G13" s="2">
         <v>2E-3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1540,25 +1540,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1566,25 +1566,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1592,28 +1592,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G16" s="2">
         <v>0.01</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,28 +1621,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1650,25 +1650,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2">
         <v>5000</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1676,28 +1676,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G19" s="2">
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1705,28 +1705,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,10 +1734,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1749,13 +1749,13 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1763,28 +1763,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G22" s="2">
         <v>0.1</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1792,28 +1792,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,28 +1821,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G24" s="2">
         <v>0.01</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,28 +1850,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2">
         <v>0.05</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1879,25 +1879,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2">
         <v>0.2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,28 +1905,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1934,28 +1934,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,28 +1963,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1992,25 +1992,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
         <v>1E-3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2018,28 +2018,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G31" s="2">
         <v>1.4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2047,28 +2047,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G32" s="2">
         <v>2E-3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2076,25 +2076,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="2">
         <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2102,25 +2102,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2128,28 +2128,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G35" s="2">
         <v>0.01</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,28 +2157,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G36" s="2">
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2186,25 +2186,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="2">
         <v>5000</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2212,28 +2212,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G38" s="2">
         <v>5</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,28 +2241,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F39" s="2">
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2270,10 +2270,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>10</v>
@@ -2285,13 +2285,13 @@
         <v>0.5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2299,28 +2299,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2328,28 +2328,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2357,28 +2357,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G43" s="2">
         <v>0.01</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2386,28 +2386,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2">
         <v>0.05</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2415,25 +2415,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="2">
         <v>0.2</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2441,28 +2441,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2470,28 +2470,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G47" s="2">
         <v>0.1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2499,28 +2499,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2528,25 +2528,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" s="2">
         <v>1E-3</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,28 +2554,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G50" s="2">
         <v>1.4</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2583,28 +2583,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G51" s="2">
         <v>2E-3</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2612,25 +2612,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52" s="2">
         <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2638,25 +2638,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2664,28 +2664,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G54" s="2">
         <v>0.01</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2693,28 +2693,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G55" s="2">
         <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" s="2">
         <v>20000</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2748,28 +2748,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G57" s="2">
         <v>10</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2777,28 +2777,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F58" s="2">
         <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2806,25 +2806,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2832,28 +2832,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F60" s="2">
         <v>0.5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F61" s="2">
         <v>5</v>
@@ -2873,10 +2873,10 @@
         <v>9</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2884,25 +2884,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G62" s="2">
         <v>40</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2910,22 +2910,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2933,22 +2933,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="2">
         <v>100</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="J64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,25 +2956,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G65" s="2">
         <v>60</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2982,25 +2982,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G66" s="2">
         <v>0.2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3008,25 +3008,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,25 +3034,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G68" s="2">
         <v>5</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3060,25 +3060,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G69" s="2">
         <v>0.2</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3086,25 +3086,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G70" s="2">
         <v>0.5</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,22 +3112,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G71" s="2">
         <v>0.2</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3135,25 +3135,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,25 +3161,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G73" s="2">
         <v>0.1</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3187,25 +3187,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G74" s="2">
         <v>5</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3213,25 +3213,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G75" s="2">
         <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3239,22 +3239,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76" s="2">
         <v>0.5</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3262,25 +3262,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="G77" s="2">
         <v>15</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3288,25 +3288,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" s="2">
         <v>10</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3314,25 +3314,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3340,25 +3340,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G80" s="2">
         <v>0.01</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3366,25 +3366,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3392,25 +3392,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G82" s="2">
         <v>0.02</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3418,25 +3418,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G83" s="2">
         <v>0.02</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,25 +3444,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G84" s="2">
         <v>5</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3470,10 +3470,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F85" s="2">
         <v>6</v>
@@ -3482,10 +3482,10 @@
         <v>10</v>
       </c>
       <c r="I85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3493,25 +3493,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G86" s="2">
         <v>40</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3519,22 +3519,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G87" s="2">
         <v>20</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I87" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3542,22 +3542,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G88" s="2">
         <v>150</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3565,14 +3565,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G89" s="1"/>
       <c r="I89" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3580,14 +3580,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90" s="1"/>
       <c r="I90" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3595,14 +3595,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="1"/>
       <c r="I91" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,25 +3610,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G92" s="2">
         <v>1.5</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3636,25 +3636,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G93" s="2">
         <v>1.5</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3662,25 +3662,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G94" s="2">
         <v>1.5</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3688,25 +3688,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G95" s="2">
         <v>1.5</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3714,25 +3714,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G96" s="2">
         <v>1.5</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3740,25 +3740,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G97" s="2">
         <v>1.5</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3766,25 +3766,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G98" s="2">
         <v>1.5</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3792,25 +3792,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G99" s="2">
         <v>1.5</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3818,25 +3818,25 @@
         <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G100" s="2">
         <v>5</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3844,25 +3844,25 @@
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G101" s="2">
         <v>5</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3870,25 +3870,25 @@
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G102" s="2">
         <v>4</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3896,25 +3896,25 @@
         <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G103" s="2">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3922,25 +3922,25 @@
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G104" s="2">
         <v>5</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3948,22 +3948,22 @@
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G105" s="2">
         <v>0.2</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3971,22 +3971,22 @@
         <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" s="2">
         <v>5</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3994,25 +3994,25 @@
         <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="G107" s="2">
         <v>15</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4020,25 +4020,25 @@
         <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G108" s="2">
         <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,22 +4046,22 @@
         <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4069,22 +4069,22 @@
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G110" s="2">
         <v>1000</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
